--- a/doc/命令.xlsx
+++ b/doc/命令.xlsx
@@ -80,9 +80,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -124,14 +124,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +146,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -152,6 +161,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -159,6 +191,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -173,8 +221,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,72 +260,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,42 +276,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,6 +372,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,7 +420,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,108 +457,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +467,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,56 +542,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +558,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,137 +587,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,9 +725,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1593,6 +1590,90 @@
         <a:xfrm>
           <a:off x="0" y="75266550"/>
           <a:ext cx="13323570" cy="5514340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>474</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>208280</xdr:colOff>
+      <xdr:row>507</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="81267300"/>
+          <a:ext cx="9123680" cy="5695315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>113030</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="87268050"/>
+          <a:ext cx="9714230" cy="4914265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1903,11 +1984,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1918,7 +1999,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1929,7 +2010,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1940,7 +2021,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1951,10 +2032,10 @@
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
@@ -1962,7 +2043,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1973,28 +2054,28 @@
       </c>
     </row>
     <row r="18" ht="17.25" spans="3:3">
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" ht="17.25" spans="3:3">
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" ht="17.25" spans="3:3">
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" ht="17.25" spans="3:3">
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" ht="17.25" spans="3:3">
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" ht="17.25" spans="3:3">
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="25" ht="17.25" spans="3:3">
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" ht="17.25" spans="3:3">
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2014,16 +2095,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2040,8 +2121,8 @@
   <sheetPr/>
   <dimension ref="A171:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="A440" sqref="A440"/>
+    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="A510" sqref="A510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2065,43 +2146,43 @@
       <c r="I216" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J216" s="3"/>
+      <c r="J216" s="1"/>
       <c r="K216" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L216" s="4"/>
-      <c r="M216" s="4"/>
-      <c r="N216" s="4"/>
-      <c r="O216" s="4"/>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
     </row>
     <row r="217" spans="9:15">
-      <c r="I217" s="4"/>
-      <c r="J217" s="4"/>
-      <c r="K217" s="4"/>
-      <c r="L217" s="4"/>
-      <c r="M217" s="4"/>
-      <c r="N217" s="4"/>
-      <c r="O217" s="4"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
     </row>
     <row r="218" spans="9:15">
-      <c r="I218" s="4"/>
-      <c r="J218" s="4"/>
-      <c r="K218" s="4"/>
-      <c r="L218" s="4"/>
-      <c r="M218" s="4"/>
-      <c r="N218" s="4"/>
-      <c r="O218" s="4"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
     </row>
     <row r="219" spans="9:15">
       <c r="I219" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
-      <c r="L219" s="4"/>
-      <c r="M219" s="4"/>
-      <c r="N219" s="4"/>
-      <c r="O219" s="4"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">

--- a/doc/命令.xlsx
+++ b/doc/命令.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350" activeTab="2"/>
+    <workbookView windowWidth="19380" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="快捷方式" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -191,6 +191,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -208,59 +261,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -324,6 +324,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,97 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,36 +490,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +537,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,124 +596,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1674,6 +1674,90 @@
         <a:xfrm>
           <a:off x="0" y="87268050"/>
           <a:ext cx="9714230" cy="4914265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>540</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>303530</xdr:colOff>
+      <xdr:row>559</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="92583000"/>
+          <a:ext cx="9218930" cy="3352165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>561</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>332105</xdr:colOff>
+      <xdr:row>591</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="96183450"/>
+          <a:ext cx="9247505" cy="5190490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2121,8 +2205,8 @@
   <sheetPr/>
   <dimension ref="A171:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="A510" sqref="A510"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="A562" sqref="A562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc/命令.xlsx
+++ b/doc/命令.xlsx
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -130,6 +130,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -161,31 +184,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,46 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -276,6 +276,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -300,25 +324,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,12 +414,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,48 +433,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,50 +495,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -567,6 +523,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1758,6 +1758,342 @@
         <a:xfrm>
           <a:off x="0" y="96183450"/>
           <a:ext cx="9247505" cy="5190490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170180</xdr:colOff>
+      <xdr:row>607</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="101669850"/>
+          <a:ext cx="9085580" cy="2542540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>609</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>494030</xdr:colOff>
+      <xdr:row>616</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="104413050"/>
+          <a:ext cx="8723630" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>618</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>644</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="105956100"/>
+          <a:ext cx="9657080" cy="4599940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>646</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>84455</xdr:colOff>
+      <xdr:row>675</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="110756700"/>
+          <a:ext cx="9685655" cy="5095240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>678</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>702</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="116243100"/>
+          <a:ext cx="9609455" cy="4209415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>705</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274955</xdr:colOff>
+      <xdr:row>730</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="120872250"/>
+          <a:ext cx="9190355" cy="4457065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>733</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>370205</xdr:colOff>
+      <xdr:row>754</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="125672850"/>
+          <a:ext cx="8599805" cy="3637915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>756</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579755</xdr:colOff>
+      <xdr:row>784</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="129616200"/>
+          <a:ext cx="9495155" cy="4942840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2205,8 +2541,8 @@
   <sheetPr/>
   <dimension ref="A171:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="A562" sqref="A562"/>
+    <sheetView tabSelected="1" topLeftCell="A763" workbookViewId="0">
+      <selection activeCell="A757" sqref="A757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc/命令.xlsx
+++ b/doc/命令.xlsx
@@ -81,9 +81,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -124,15 +124,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,9 +145,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,14 +167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -184,16 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,9 +190,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +220,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -247,21 +245,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,17 +470,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,16 +489,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +520,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -534,39 +567,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2094,6 +2094,90 @@
         <a:xfrm>
           <a:off x="0" y="129616200"/>
           <a:ext cx="9495155" cy="4942840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>786</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579755</xdr:colOff>
+      <xdr:row>814</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="134759700"/>
+          <a:ext cx="8809355" cy="4895215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>816</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>379730</xdr:colOff>
+      <xdr:row>839</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="139903200"/>
+          <a:ext cx="8609330" cy="4057015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2541,8 +2625,8 @@
   <sheetPr/>
   <dimension ref="A171:O319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A763" workbookViewId="0">
-      <selection activeCell="A757" sqref="A757"/>
+    <sheetView tabSelected="1" topLeftCell="A820" workbookViewId="0">
+      <selection activeCell="O833" sqref="O833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
